--- a/biology/Histoire de la zoologie et de la botanique/William_Botting_Hemsley/William_Botting_Hemsley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Botting_Hemsley/William_Botting_Hemsley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Botting Hemsley, né le 29 décembre 1843 à East Hoathly dans le Sussex et mort le 7 octobre 1924 (à 80 ans) à Broadstairs dans le Kent, est un botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est gardien aux Jardins botaniques royaux de Kew en 1860, assistant à l’herbier des Jardins de 1865 à 1867 puis de 1883 à 1908. Il est membre de la Royal Society en 1889, associé à la Société linnéenne de Londres en 1875 puis membre en 1896. Il reçoit un doctorat honorifique à Aberdeen en 1913. Il reçoit la médaille d’honneur de la reine Victoria en 1909.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hemsley est l’auteur de :
 Handbook of Hardy Trees, Shrubs and Herbaceous Plants (1877),
@@ -577,7 +593,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Cogniaux (1841-1916) lui dédie en 1888 le genre Hemsleya de la famille des Cucurbitaceae.
 </t>
